--- a/results/fgsea_NR_pre_vs_post.xlsx
+++ b/results/fgsea_NR_pre_vs_post.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H28"/>
+  <dimension ref="A1:H53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -406,806 +406,1556 @@
         </is>
       </c>
       <c r="B2">
-        <v>3.383331782489728e-09</v>
+        <v>6.319752329047714e-09</v>
       </c>
       <c r="C2">
-        <v>9.134995812722266e-08</v>
+        <v>3.286271211104811e-07</v>
       </c>
       <c r="D2">
-        <v>0.7749390301364363</v>
+        <v>0.7614608014455848</v>
       </c>
       <c r="E2">
-        <v>0.6927059768004695</v>
+        <v>0.6514760829581318</v>
       </c>
       <c r="F2">
-        <v>3.324569937546825</v>
+        <v>3.29764656303395</v>
       </c>
       <c r="G2">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>IGHG1,IGHG3,IGHV4-31,IGHM,IGHG2,IGKV3D-11,IGLL5,IGLV1-36,IGLV1-44,IGLV1-47,IGKC,IGKV1-5,IGKV2-24,IGKV1-39,IGKV1D-39,IGKV1-27,IL6,IGKV1D-33,IGLV1-40,IGKV3-20,IGKV3D-20,IGHA1,IGHA2,IGLV1-51</t>
+          <t>IGHG1,IGHG3,IGHV4-31,IGHG2,IGHM,IGKV3D-11,IGLL5,IGLV1-36,IGLV1-44,IGLV1-47,IGKC,IGKV1-5,IGKV2-24,IGKV1-39,IGKV1D-39,IGKV1-27,IL6,IGKV1D-33,IGLV1-40,IGKV3-20,IGKV3D-20,IGHA1,IGHA2,IGLV1-51</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>GOBP_BIOLOGICAL_PROCESS_INVOLVED_IN_INTERSPECIES_INTERACTION_BETWEEN_ORGANISMS</t>
+          <t>GOBP_BIOLOGICAL_ADHESION</t>
         </is>
       </c>
       <c r="B3">
-        <v>0.065625</v>
+        <v>0.8611570247933884</v>
       </c>
       <c r="C3">
-        <v>0.1083835108846688</v>
+        <v>0.9329201101928374</v>
       </c>
       <c r="D3">
-        <v>0.2192503467037552</v>
+        <v>0.04380020312998911</v>
       </c>
       <c r="E3">
-        <v>0.305046842488904</v>
+        <v>0.1515816525889882</v>
       </c>
       <c r="F3">
-        <v>1.556209535750431</v>
+        <v>0.6695268394311934</v>
       </c>
       <c r="G3">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>CCL18,IGHG1,IGHG3,IGHV4-31,IGHM,IGHG2,SELE,IGLL5</t>
+          <t>SELE,TNC,IL6,DPP4,FPR2,SELL</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>GOBP_CELL_ACTIVATION</t>
+          <t>GOBP_BIOLOGICAL_PROCESS_INVOLVED_IN_INTERSPECIES_INTERACTION_BETWEEN_ORGANISMS</t>
         </is>
       </c>
       <c r="B4">
-        <v>0.001745841380094311</v>
+        <v>0.0673076923076923</v>
       </c>
       <c r="C4">
-        <v>0.007856286210424397</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="D4">
-        <v>0.4550598673872295</v>
+        <v>0.2192503467037552</v>
       </c>
       <c r="E4">
-        <v>0.4764529353269175</v>
+        <v>0.2718031854402641</v>
       </c>
       <c r="F4">
-        <v>2.106689341966834</v>
+        <v>1.524125452442364</v>
       </c>
       <c r="G4">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>IGHG1,IGHG3,IGHV4-31,IGHM,IGHG2,IL11,IGLL5,IGKC,IL6,DPP4,FPR2,CXCL6,IGHA1,IGHA2,LRRK2</t>
+          <t>CCL18,IGHG1,IGHG3,IGHV4-31,IGHG2,IGHM,SELE,IGLL5</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>GOBP_CELL_MIGRATION</t>
+          <t>GOBP_CELL_ACTIVATION</t>
         </is>
       </c>
       <c r="B5">
-        <v>0.9650238473767886</v>
+        <v>0.007034795954092991</v>
       </c>
       <c r="C5">
-        <v>0.9697452229299363</v>
+        <v>0.02813918381637196</v>
       </c>
       <c r="D5">
-        <v>0.03676195538836092</v>
+        <v>0.4070179189239539</v>
       </c>
       <c r="E5">
-        <v>0.1270753779195377</v>
+        <v>0.3895846189435065</v>
       </c>
       <c r="F5">
-        <v>0.551906643704403</v>
+        <v>1.900579726289275</v>
       </c>
       <c r="G5">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>CCL18,SELE,IL6,DPP4,FPR2,SELL,CXCL6,LRRK2,IL24,DEFB103A,DEFB103B,S100A12,CXCR1,SELP,CXCR2</t>
+          <t>IGHG1,IGHG3,IGHV4-31,IGHG2,IGHM,IL11,IGLL5,IGKC,IL6,DPP4,FPR2,CXCL6,IGHA1,IGHA2,LRRK2</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>GOBP_DEFENSE_RESPONSE</t>
+          <t>GOBP_CELL_CELL_SIGNALING</t>
         </is>
       </c>
       <c r="B6">
-        <v>0.06461538461538462</v>
+        <v>0.5074380165289256</v>
       </c>
       <c r="C6">
-        <v>0.1083835108846688</v>
+        <v>0.851186350306585</v>
       </c>
       <c r="D6">
-        <v>0.2192503467037552</v>
+        <v>0.06863256318367258</v>
       </c>
       <c r="E6">
-        <v>0.2933955275122148</v>
+        <v>0.2189737228914889</v>
       </c>
       <c r="F6">
-        <v>1.553603892418911</v>
+        <v>0.9671934703307959</v>
       </c>
       <c r="G6">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>CCL18,IGHG1,IGHG3,IGHV4-31,IGHM,IGHG2,SELE</t>
+          <t>CCL18,IL11,TNC,NPTX2,IL6,DKK1,CXCL6</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>GOBP_DEFENSE_RESPONSE_TO_BACTERIUM</t>
+          <t>GOBP_CELL_MIGRATION</t>
         </is>
       </c>
       <c r="B7">
-        <v>0.1383647798742138</v>
+        <v>0.7225274725274725</v>
       </c>
       <c r="C7">
-        <v>0.1966236345580933</v>
+        <v>0.9055543852257567</v>
       </c>
       <c r="D7">
-        <v>0.1473312136993771</v>
+        <v>0.0764767053228531</v>
       </c>
       <c r="E7">
-        <v>0.2952286774179964</v>
+        <v>-0.1492928294556937</v>
       </c>
       <c r="F7">
-        <v>1.340972566115367</v>
+        <v>-0.8213271589111742</v>
       </c>
       <c r="G7">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>IGHG1,IGHG3,IGHV4-31,IGHM,IGHG2,IGLL5,IGKC,IL6,FPR2,CXCL6,IGKV3-20,IGHA1,IGHA2</t>
+          <t>PPBP,S100A7,MMP7,OLFM4,PRSS3P2,PRSS3</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>GOBP_DEFENSE_RESPONSE_TO_OTHER_ORGANISM</t>
+          <t>GOBP_DEFENSE_RESPONSE</t>
         </is>
       </c>
       <c r="B8">
-        <v>0.04938271604938271</v>
+        <v>0.06161137440758294</v>
       </c>
       <c r="C8">
-        <v>0.09523809523809523</v>
+        <v>0.1601895734597156</v>
       </c>
       <c r="D8">
-        <v>0.2529611230696109</v>
+        <v>0.2279872028504422</v>
       </c>
       <c r="E8">
-        <v>0.3274559006868739</v>
+        <v>0.2741144711070196</v>
       </c>
       <c r="F8">
-        <v>1.589519590996839</v>
+        <v>1.583067624482855</v>
       </c>
       <c r="G8">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>CCL18,IGHG1,IGHG3,IGHV4-31,IGHM,IGHG2,IGLL5</t>
+          <t>CCL18,IGHG1,IGHG3,IGHV4-31,IGHG2,IGHM,SELE,IGLL5,IGKC,IL6,DPP4,FPR2,CXCL6,APOBEC3A,IGKV3-20,IGHA1,IGHA2,LRRK2,PROK2,PTGS2,DEFB103A,DEFB103B,MNDA,APOA2,S100A12,MMP25,OSM,IFIT2,SPP1,OLR1,CXCR2,C5AR1,JCHAIN,SELP</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>GOBP_ENDOCYTOSIS</t>
+          <t>GOBP_DEFENSE_RESPONSE_TO_BACTERIUM</t>
         </is>
       </c>
       <c r="B9">
-        <v>0.000322901211321985</v>
+        <v>0.08631921824104234</v>
       </c>
       <c r="C9">
-        <v>0.001743666541138719</v>
+        <v>0.1937669376693767</v>
       </c>
       <c r="D9">
-        <v>0.4984931087665903</v>
+        <v>0.1938133027253105</v>
       </c>
       <c r="E9">
-        <v>0.5651513080260617</v>
+        <v>0.3043603961679071</v>
       </c>
       <c r="F9">
-        <v>2.289829932108305</v>
+        <v>1.47268369900105</v>
       </c>
       <c r="G9">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>IGHG1,IGHG3,IGHV4-31,IGHM,IGHG2,SELE,IGLL5,IGKC,FPR2,DKK1,IGHA1,IGHA2,LRRK2</t>
+          <t>IGHG1,IGHG3,IGHV4-31,IGHG2,IGHM,IGLL5,IGKC,IL6,FPR2,CXCL6,IGKV3-20,IGHA1,IGHA2</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>GOBP_HOMEOSTATIC_PROCESS</t>
+          <t>GOBP_DEFENSE_RESPONSE_TO_OTHER_ORGANISM</t>
         </is>
       </c>
       <c r="B10">
-        <v>0.9697452229299363</v>
+        <v>0.04754358161648178</v>
       </c>
       <c r="C10">
-        <v>0.9697452229299363</v>
+        <v>0.1477866750245953</v>
       </c>
       <c r="D10">
-        <v>0.03660822213366891</v>
+        <v>0.2616635217115731</v>
       </c>
       <c r="E10">
-        <v>0.1180232049849354</v>
+        <v>0.3093503500909202</v>
       </c>
       <c r="F10">
-        <v>0.521852652405064</v>
+        <v>1.600060326011733</v>
       </c>
       <c r="G10">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>IGHG3,IGKC,SCNN1A,IL6,FPR2,CXCL6,IGHA1,IGHA2,LRRK2</t>
+          <t>CCL18,IGHG1,IGHG3,IGHV4-31,IGHG2,IGHM,IGLL5,IGKC,IL6,FPR2,CXCL6,APOBEC3A,IGKV3-20,IGHA1,IGHA2</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>GOBP_HUMORAL_IMMUNE_RESPONSE</t>
+          <t>GOBP_ENDOCYTOSIS</t>
         </is>
       </c>
       <c r="B11">
-        <v>0.02132083980182237</v>
+        <v>0.0006661570920340589</v>
       </c>
       <c r="C11">
-        <v>0.04428174420378493</v>
+        <v>0.005773361464295176</v>
       </c>
       <c r="D11">
-        <v>0.3524878575836192</v>
+        <v>0.4772708153628621</v>
       </c>
       <c r="E11">
-        <v>0.4039845520104971</v>
+        <v>0.5160945937678365</v>
       </c>
       <c r="F11">
-        <v>1.701667797671413</v>
+        <v>2.231898278599264</v>
       </c>
       <c r="G11">
         <v>18</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>IGHG1,IGHG3,IGHV4-31,IGHM,IGHG2,IGLL5,IGKC,IL6,CXCL6,IGKV3-20,IGHA1,IGHA2</t>
+          <t>IGHG1,IGHG3,IGHV4-31,IGHG2,IGHM,SELE,IGLL5,IGKC,FPR2,DKK1,IGHA1,IGHA2,LRRK2</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>GOBP_IMMUNE_RESPONSE</t>
+          <t>GOBP_G_PROTEIN_COUPLED_RECEPTOR_SIGNALING_PATHWAY</t>
         </is>
       </c>
       <c r="B12">
-        <v>4.020065540047807e-05</v>
+        <v>0.3712871287128713</v>
       </c>
       <c r="C12">
-        <v>0.000271354423953227</v>
+        <v>0.6895332390381895</v>
       </c>
       <c r="D12">
-        <v>0.557332238758646</v>
+        <v>0.1088201267691612</v>
       </c>
       <c r="E12">
-        <v>0.4589357500115931</v>
+        <v>-0.2344203132134303</v>
       </c>
       <c r="F12">
-        <v>2.511752623150557</v>
+        <v>-1.072977916063103</v>
       </c>
       <c r="G12">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>CCL18,IGHG1,IGHG3,IGHV4-31,IGHM,IGHG2,IGKV3D-11,IGLL5,IGLV1-36,IGLV1-44,IGLV1-47,IGKC,IGKV1-5,IGKV2-24,IGKV1-39,IGKV1D-39,IGKV1-27,IL6,IGKV1D-33,FPR2,CXCL6,IGLV1-40,IGKV3-20,IGKV3D-20,IGHA1,IGHA2</t>
+          <t>NTS,DEFB1,GRP,GPR19,MRAP2,CA2,FZD3,PLEK,C5AR1,CXCR2,CXCR1,HCAR3,HCAR2,PROK2</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>GOBP_IMMUNOGLOBULIN_PRODUCTION</t>
+          <t>GOBP_HOMEOSTATIC_PROCESS</t>
         </is>
       </c>
       <c r="B13">
-        <v>2.844592235934035e-05</v>
+        <v>0.7240829346092504</v>
       </c>
       <c r="C13">
-        <v>0.0002560133012340632</v>
+        <v>0.9055543852257567</v>
       </c>
       <c r="D13">
-        <v>0.5756102610711286</v>
+        <v>0.05009228744021063</v>
       </c>
       <c r="E13">
-        <v>0.6407045224942244</v>
+        <v>0.1588163542820533</v>
       </c>
       <c r="F13">
-        <v>2.684538756266516</v>
+        <v>0.7908482184583397</v>
       </c>
       <c r="G13">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>IGKV3D-11,IGLV1-36,IGLV1-44,IGLV1-47,IGKC,IGKV1-5,IGKV2-24,IGKV1-39,IGKV1D-39,IGKV1-27,IL6,IGKV1D-33,IGLV1-40,IGKV3-20,IGKV3D-20,IGLV1-51</t>
+          <t>IGHG3,IGKC,SCNN1A,IL6,FPR2,CXCL6,IGHA1,IGHA2,LRRK2,ACSL1,PROK2,PTGS2,HCAR2,APOA2,SPP1,CXCR1,CXCR2,C5AR1,JCHAIN</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>GOBP_INFLAMMATORY_RESPONSE</t>
+          <t>GOBP_HUMORAL_IMMUNE_RESPONSE</t>
         </is>
       </c>
       <c r="B14">
-        <v>0.4460547504025765</v>
+        <v>0.01125767952824443</v>
       </c>
       <c r="C14">
-        <v>0.5734989648033126</v>
+        <v>0.0390266223645807</v>
       </c>
       <c r="D14">
-        <v>0.07380527241712746</v>
+        <v>0.3807304007227924</v>
       </c>
       <c r="E14">
-        <v>0.2391881267047701</v>
+        <v>0.4031561409022141</v>
       </c>
       <c r="F14">
-        <v>1.007510635674705</v>
+        <v>1.780715886159597</v>
       </c>
       <c r="G14">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>CCL18,IGHG1,SELE</t>
+          <t>IGHG1,IGHG3,IGHV4-31,IGHG2,IGHM,IGLL5,IGKC,IL6,CXCL6,IGKV3-20,IGHA1,IGHA2</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>GOBP_INNATE_IMMUNE_RESPONSE</t>
+          <t>GOBP_IMMUNE_EFFECTOR_PROCESS</t>
         </is>
       </c>
       <c r="B15">
-        <v>0.003071384062881021</v>
+        <v>0.003994611568343568</v>
       </c>
       <c r="C15">
-        <v>0.01046705215087928</v>
+        <v>0.01888361832307869</v>
       </c>
       <c r="D15">
-        <v>0.4317076958033464</v>
+        <v>0.4070179189239539</v>
       </c>
       <c r="E15">
-        <v>0.4846207862350662</v>
+        <v>0.484018618770936</v>
       </c>
       <c r="F15">
-        <v>2.041324555392865</v>
+        <v>1.988071155380902</v>
       </c>
       <c r="G15">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>CCL18,IGHG1,IGHG3,IGHV4-31,IGHM,IGHG2,IGLL5,IGKC</t>
+          <t>IGHG1,IGHG3,IGHV4-31,IGHG2,IGHM,IGLL5,IGKC,IL6,CXCL6,IGHA1,IGHA2</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>GOBP_LOCOMOTION</t>
+          <t>GOBP_IMMUNE_RESPONSE</t>
         </is>
       </c>
       <c r="B16">
-        <v>0.8623595505617978</v>
+        <v>0.0001153858453637267</v>
       </c>
       <c r="C16">
-        <v>0.9697452229299363</v>
+        <v>0.001918343438385781</v>
       </c>
       <c r="D16">
-        <v>0.06863256318367258</v>
+        <v>0.5384340963099162</v>
       </c>
       <c r="E16">
-        <v>-0.1309953031831082</v>
+        <v>0.4096239797980868</v>
       </c>
       <c r="F16">
-        <v>-0.6882090842977339</v>
+        <v>2.442124334285938</v>
       </c>
       <c r="G16">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>PPBP,S100A7,MMP7,DEFB1,PRSS3P2</t>
+          <t>CCL18,IGHG1,IGHG3,IGHV4-31,IGHG2,IGHM,IGKV3D-11,IGLL5,IGLV1-36,IGLV1-44,IGLV1-47,IGKC,IGKV1-5,IGKV2-24,IGKV1-39,IGKV1D-39,IGKV1-27,IL6,IGKV1D-33,FPR2,CXCL6,IGLV1-40,APOBEC3A,IGKV3-20,IGKV3D-20,IGHA1,IGHA2</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>GOBP_POSITIVE_REGULATION_OF_IMMUNE_SYSTEM_PROCESS</t>
+          <t>GOBP_IMMUNOGLOBULIN_PRODUCTION</t>
         </is>
       </c>
       <c r="B17">
-        <v>0.01244763471660508</v>
+        <v>3.303547866642691e-05</v>
       </c>
       <c r="C17">
-        <v>0.0305532852134852</v>
+        <v>0.0008589224453270998</v>
       </c>
       <c r="D17">
-        <v>0.3807304007227924</v>
+        <v>0.557332238758646</v>
       </c>
       <c r="E17">
-        <v>0.4333208976765928</v>
+        <v>0.5777876037370603</v>
       </c>
       <c r="F17">
-        <v>1.856812901095928</v>
+        <v>2.552052320220577</v>
       </c>
       <c r="G17">
         <v>19</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>IGHG1,IGHG3,IGHV4-31,IGHM,IGHG2,IGLL5,IGKC,IL6,DPP4,FPR2,IGHA1,IGHA2,LRRK2</t>
+          <t>IGKV3D-11,IGLV1-36,IGLV1-44,IGLV1-47,IGKC,IGKV1-5,IGKV2-24,IGKV1-39,IGKV1D-39,IGKV1-27,IL6,IGKV1D-33,IGLV1-40,IGKV3-20,IGKV3D-20,IGLV1-51</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>GOBP_POSITIVE_REGULATION_OF_SIGNALING</t>
+          <t>GOBP_INFLAMMATORY_RESPONSE</t>
         </is>
       </c>
       <c r="B18">
-        <v>0.4047619047619048</v>
+        <v>0.4537953795379538</v>
       </c>
       <c r="C18">
-        <v>0.5464285714285715</v>
+        <v>0.8137020598611585</v>
       </c>
       <c r="D18">
-        <v>0.1075543752651693</v>
+        <v>0.07417589655880091</v>
       </c>
       <c r="E18">
-        <v>-0.2284342427150119</v>
+        <v>0.2103115622426156</v>
       </c>
       <c r="F18">
-        <v>-1.037846273196884</v>
+        <v>1.000929533497054</v>
       </c>
       <c r="G18">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>NTS,PLA2G2A,S100A7,RBP4,GRP,MRAP2</t>
+          <t>CCL18,IGHG1,SELE,IL6,FPR2,CXCL6,LRRK2,PROK2,PTGS2,APOA2,S100A12,MMP25,OSM,SPP1,OLR1,CXCR2,C5AR1,SELP</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>GOBP_PRODUCTION_OF_MOLECULAR_MEDIATOR_OF_IMMUNE_RESPONSE</t>
+          <t>GOBP_INNATE_IMMUNE_RESPONSE</t>
         </is>
       </c>
       <c r="B19">
-        <v>2.844592235934035e-05</v>
+        <v>0.001250184922465566</v>
       </c>
       <c r="C19">
-        <v>0.0002560133012340632</v>
+        <v>0.009287087995458489</v>
       </c>
       <c r="D19">
-        <v>0.5756102610711286</v>
+        <v>0.4550598673872295</v>
       </c>
       <c r="E19">
-        <v>0.6407045224942244</v>
+        <v>0.4810513398518119</v>
       </c>
       <c r="F19">
-        <v>2.684538756266516</v>
+        <v>2.12477419050465</v>
       </c>
       <c r="G19">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>IGKV3D-11,IGLV1-36,IGLV1-44,IGLV1-47,IGKC,IGKV1-5,IGKV2-24,IGKV1-39,IGKV1D-39,IGKV1-27,IL6,IGKV1D-33,IGLV1-40,IGKV3-20,IGKV3D-20,IGLV1-51</t>
+          <t>CCL18,IGHG1,IGHG3,IGHV4-31,IGHG2,IGHM,IGLL5,IGKC</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>GOBP_PROTEOLYSIS</t>
+          <t>GOBP_LEUKOCYTE_MIGRATION</t>
         </is>
       </c>
       <c r="B20">
-        <v>0.06824146981627296</v>
+        <v>0.2792642140468227</v>
       </c>
       <c r="C20">
-        <v>0.1083835108846688</v>
+        <v>0.5808695652173913</v>
       </c>
       <c r="D20">
-        <v>0.2820133500117251</v>
+        <v>0.1020801076627472</v>
       </c>
       <c r="E20">
-        <v>-0.308335217334739</v>
+        <v>0.2812619026420791</v>
       </c>
       <c r="F20">
-        <v>-1.451811194938261</v>
+        <v>1.155262740037069</v>
       </c>
       <c r="G20">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>CLCA1,CLCA4,SPINK4,MMP7,PRSS3P2,PRSS2,PBK,CASP5</t>
+          <t>CCL18,SELE,IL6,DPP4,FPR2,SELL,CXCL6</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>GOBP_REGULATION_OF_CELL_ACTIVATION</t>
+          <t>GOBP_LOCOMOTION</t>
         </is>
       </c>
       <c r="B21">
-        <v>0.003101348785445714</v>
+        <v>0.5012919896640827</v>
       </c>
       <c r="C21">
-        <v>0.01046705215087928</v>
+        <v>0.851186350306585</v>
       </c>
       <c r="D21">
-        <v>0.4317076958033464</v>
+        <v>0.09314545753378035</v>
       </c>
       <c r="E21">
-        <v>0.4920931129728218</v>
+        <v>-0.1607221890801505</v>
       </c>
       <c r="F21">
-        <v>1.993819218795046</v>
+        <v>-0.9606210697732173</v>
       </c>
       <c r="G21">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>IGHG1,IGHG3,IGHV4-31,IGHM,IGHG2,IGLL5,IGKC,IL6,DPP4,IGHA1,IGHA2,LRRK2</t>
+          <t>PPBP,S100A7,MMP7,DEFB1,OLFM4,PRSS3P2,PRSS3</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>GOBP_REGULATION_OF_IMMUNE_RESPONSE</t>
+          <t>GOBP_LYMPHOCYTE_ACTIVATION</t>
         </is>
       </c>
       <c r="B22">
-        <v>0.004539218507409984</v>
+        <v>0.0002751532447924299</v>
       </c>
       <c r="C22">
-        <v>0.01225588997000696</v>
+        <v>0.002861593745841271</v>
       </c>
       <c r="D22">
-        <v>0.4070179189239539</v>
+        <v>0.4984931087665903</v>
       </c>
       <c r="E22">
-        <v>0.4965090274215089</v>
+        <v>0.5570678938228473</v>
       </c>
       <c r="F22">
-        <v>1.961233432985138</v>
+        <v>2.288115721891514</v>
       </c>
       <c r="G22">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>IGHG1,IGHG3,IGHV4-31,IGHM,IGHG2,IGLL5,IGKC,IL6,FPR2,IGHA1,IGHA2</t>
+          <t>IGHG1,IGHG3,IGHV4-31,IGHG2,IGHM,IL11,IGLL5,IGKC,IL6,DPP4</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>GOBP_REGULATION_OF_IMMUNE_SYSTEM_PROCESS</t>
+          <t>GOBP_PHOSPHORYLATION</t>
         </is>
       </c>
       <c r="B23">
-        <v>0.01470604941595829</v>
+        <v>0.9177852348993288</v>
       </c>
       <c r="C23">
-        <v>0.03308861118590615</v>
+        <v>0.9489419530188313</v>
       </c>
       <c r="D23">
-        <v>0.3807304007227924</v>
+        <v>0.04157178992464793</v>
       </c>
       <c r="E23">
-        <v>0.380827550122459</v>
+        <v>0.1444295905971641</v>
       </c>
       <c r="F23">
-        <v>1.762764066937873</v>
+        <v>0.6059947168672125</v>
       </c>
       <c r="G23">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>IGHG1,IGHG3,IGHV4-31,IGHM,IGHG2,SELE,IGLL5,IGKC,IL6,DPP4,FPR2,CXCL6,IGHA1,IGHA2,LRRK2</t>
+          <t>IL11,IL6,IL24,FPR2,DKK1,LRRK2,ACSL1,PTGS2,S100A12,OSM,PROM2,C5AR1</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>GOBP_REGULATION_OF_INTRACELLULAR_SIGNAL_TRANSDUCTION</t>
+          <t>GOBP_POSITIVE_REGULATION_OF_CELL_ACTIVATION</t>
         </is>
       </c>
       <c r="B24">
-        <v>0.8733766233766234</v>
+        <v>0.001453652499748258</v>
       </c>
       <c r="C24">
-        <v>0.9697452229299363</v>
+        <v>0.009448741248363677</v>
       </c>
       <c r="D24">
-        <v>0.04233183935185304</v>
+        <v>0.4550598673872295</v>
       </c>
       <c r="E24">
-        <v>0.1633363495150936</v>
+        <v>0.4948312964913763</v>
       </c>
       <c r="F24">
-        <v>0.6451860727575364</v>
+        <v>2.076203014731908</v>
       </c>
       <c r="G24">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>CCL18,IL11</t>
+          <t>IGHG1,IGHG3,IGHV4-31,IGHG2,IGHM,IGLL5,IGKC,IL6,DPP4,IGHA1,IGHA2,LRRK2</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>GOBP_REGULATION_OF_RESPONSE_TO_EXTERNAL_STIMULUS</t>
+          <t>GOBP_POSITIVE_REGULATION_OF_IMMUNE_SYSTEM_PROCESS</t>
         </is>
       </c>
       <c r="B25">
-        <v>0.8937823834196891</v>
+        <v>0.0504885993485342</v>
       </c>
       <c r="C25">
-        <v>0.9697452229299363</v>
+        <v>0.1477866750245953</v>
       </c>
       <c r="D25">
-        <v>0.06293946920189672</v>
+        <v>0.2572064664688382</v>
       </c>
       <c r="E25">
-        <v>-0.1502380034663235</v>
+        <v>0.3304940854381458</v>
       </c>
       <c r="F25">
-        <v>-0.651258726715163</v>
+        <v>1.599134638964366</v>
       </c>
       <c r="G25">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>PLA2G2A,S100A7,PBK,CASP5,TLR8,OSM,SERPINB2,S100A12,MNDA,LRRK2,CXCL6,FPR2,DPP4,IL6</t>
+          <t>IGHG1,IGHG3,IGHV4-31,IGHG2,IGHM,IGLL5,IGKC,IL6,DPP4,FPR2,IGHA1,IGHA2,LRRK2</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>GOBP_RESPONSE_TO_BACTERIUM</t>
+          <t>GOBP_POSITIVE_REGULATION_OF_MULTICELLULAR_ORGANISMAL_PROCESS</t>
         </is>
       </c>
       <c r="B26">
-        <v>0.08641975308641975</v>
+        <v>0.3679092382495948</v>
       </c>
       <c r="C26">
-        <v>0.1296296296296296</v>
+        <v>0.6895332390381895</v>
       </c>
       <c r="D26">
-        <v>0.1882041463084906</v>
+        <v>0.08431443206426534</v>
       </c>
       <c r="E26">
-        <v>0.3057544500550155</v>
+        <v>0.2635135135135135</v>
       </c>
       <c r="F26">
-        <v>1.46743652713836</v>
+        <v>1.067362861327524</v>
       </c>
       <c r="G26">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>IGHG1,IGHG3,IGHV4-31,IGHM,IGHG2,SELE,IGLL5</t>
+          <t>IL6,DKK1,LRRK2,ACSL1,PROK2,PTGS2,HCAR2,MNDA,APOA2,OSM,C5AR1,TLR8,FZD3,IGF2,PTPRD</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>GOBP_TAXIS</t>
+          <t>GOBP_POSITIVE_REGULATION_OF_PHOSPHORUS_METABOLIC_PROCESS</t>
         </is>
       </c>
       <c r="B27">
-        <v>0.9154471544715447</v>
+        <v>0.5526742301458671</v>
       </c>
       <c r="C27">
-        <v>0.9697452229299363</v>
+        <v>0.8576604061397655</v>
       </c>
       <c r="D27">
-        <v>0.04024775650688684</v>
+        <v>0.06350079680659454</v>
       </c>
       <c r="E27">
-        <v>0.1477547644866508</v>
+        <v>0.2270386153602543</v>
       </c>
       <c r="F27">
-        <v>0.5986596465906863</v>
+        <v>0.919621096055603</v>
       </c>
       <c r="G27">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>CCL18,IL6,DPP4,FPR2,CXCL6,PROK2,EMB,DEFB103A,DEFB103B,S100A12,CXCR1,CXCR2,CMTM2</t>
+          <t>IL11,IL6,IL24,FPR2,DKK1,LRRK2,ACSL1,PTGS2,S100A12,OSM,PROM2</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
+          <t>GOBP_POSITIVE_REGULATION_OF_PROTEIN_METABOLIC_PROCESS</t>
+        </is>
+      </c>
+      <c r="B28">
+        <v>0.5607779578606159</v>
+      </c>
+      <c r="C28">
+        <v>0.8576604061397655</v>
+      </c>
+      <c r="D28">
+        <v>0.06280039778122341</v>
+      </c>
+      <c r="E28">
+        <v>0.2260273930171685</v>
+      </c>
+      <c r="F28">
+        <v>0.9155251346790376</v>
+      </c>
+      <c r="G28">
+        <v>15</v>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>IL11,IL6,IL24,FPR2,DKK1,LRRK2,ACSL1,PTGS2,S100A12,OSM,PROM2</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>GOBP_POSITIVE_REGULATION_OF_SIGNALING</t>
+        </is>
+      </c>
+      <c r="B29">
+        <v>0.6590909090909091</v>
+      </c>
+      <c r="C29">
+        <v>0.9055543852257567</v>
+      </c>
+      <c r="D29">
+        <v>0.07687367341265418</v>
+      </c>
+      <c r="E29">
+        <v>-0.1633864235758097</v>
+      </c>
+      <c r="F29">
+        <v>-0.8601127571235248</v>
+      </c>
+      <c r="G29">
+        <v>23</v>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>PLA2G2A,NTS,S100A7,RBP4,GRP,MRAP2</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>GOBP_PRODUCTION_OF_MOLECULAR_MEDIATOR_OF_IMMUNE_RESPONSE</t>
+        </is>
+      </c>
+      <c r="B30">
+        <v>0.0001475648798758293</v>
+      </c>
+      <c r="C30">
+        <v>0.001918343438385781</v>
+      </c>
+      <c r="D30">
+        <v>0.5188480777437918</v>
+      </c>
+      <c r="E30">
+        <v>0.5404891999166148</v>
+      </c>
+      <c r="F30">
+        <v>2.457235295088278</v>
+      </c>
+      <c r="G30">
+        <v>20</v>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>IGKV3D-11,IGLV1-36,IGLV1-44,IGLV1-47,IGKC,IGKV1-5,IGKV2-24,IGKV1-39,IGKV1D-39,IGKV1-27,IL6,IGKV1D-33,IGLV1-40,IGKV3-20,IGKV3D-20,IGLV1-51</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>GOBP_PROGRAMMED_CELL_DEATH</t>
+        </is>
+      </c>
+      <c r="B31">
+        <v>0.6359060402684564</v>
+      </c>
+      <c r="C31">
+        <v>0.9055543852257567</v>
+      </c>
+      <c r="D31">
+        <v>0.05846932103863807</v>
+      </c>
+      <c r="E31">
+        <v>0.2051838684415261</v>
+      </c>
+      <c r="F31">
+        <v>0.8609062709922509</v>
+      </c>
+      <c r="G31">
+        <v>17</v>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>IL11,GAS1,IL6,IL24,DKK1,LRRK2,PROK2,PTGS2,HCAR2,MNDA,SERPINB2,IFIT2</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>GOBP_PROTEOLYSIS</t>
+        </is>
+      </c>
+      <c r="B32">
+        <v>0.06161095174683087</v>
+      </c>
+      <c r="C32">
+        <v>0.1601895734597156</v>
+      </c>
+      <c r="D32">
+        <v>0.3217759180753611</v>
+      </c>
+      <c r="E32">
+        <v>-0.2969060233539202</v>
+      </c>
+      <c r="F32">
+        <v>-1.578190945256512</v>
+      </c>
+      <c r="G32">
+        <v>24</v>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>CLCA1,CLCA4,SPINK4,MMP7,PRSS3P2,PRSS3,PRSS2,PRSS1,PBK,CASP5,GPC3</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>GOBP_REGULATION_OF_CELL_ACTIVATION</t>
+        </is>
+      </c>
+      <c r="B33">
+        <v>0.01027341180258333</v>
+      </c>
+      <c r="C33">
+        <v>0.03815838669530952</v>
+      </c>
+      <c r="D33">
+        <v>0.3807304007227924</v>
+      </c>
+      <c r="E33">
+        <v>0.4068954572838409</v>
+      </c>
+      <c r="F33">
+        <v>1.797232216703982</v>
+      </c>
+      <c r="G33">
+        <v>19</v>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>IGHG1,IGHG3,IGHV4-31,IGHG2,IGHM,IGLL5,IGKC,IL6,DPP4,IGHA1,IGHA2,LRRK2</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>GOBP_REGULATION_OF_CELL_DEATH</t>
+        </is>
+      </c>
+      <c r="B34">
+        <v>0.7926421404682275</v>
+      </c>
+      <c r="C34">
+        <v>0.9055543852257567</v>
+      </c>
+      <c r="D34">
+        <v>0.04811839926579747</v>
+      </c>
+      <c r="E34">
+        <v>0.1832019708295952</v>
+      </c>
+      <c r="F34">
+        <v>0.7524887260331194</v>
+      </c>
+      <c r="G34">
+        <v>16</v>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>IL11,GAS1,IL6,DKK1,LRRK2,PROK2,PTGS2,HCAR2,MNDA,SERPINB2,IFIT2</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>GOBP_REGULATION_OF_CELL_DIFFERENTIATION</t>
+        </is>
+      </c>
+      <c r="B35">
+        <v>0.535064935064935</v>
+      </c>
+      <c r="C35">
+        <v>0.8576604061397655</v>
+      </c>
+      <c r="D35">
+        <v>0.08971046527429813</v>
+      </c>
+      <c r="E35">
+        <v>-0.2106146272466099</v>
+      </c>
+      <c r="F35">
+        <v>-0.9310870130652061</v>
+      </c>
+      <c r="G35">
+        <v>15</v>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>PLA2G2A,OLFM4,ID4,PTPRD,IGF2,MMP11,FZD3</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>GOBP_REGULATION_OF_CELL_POPULATION_PROLIFERATION</t>
+        </is>
+      </c>
+      <c r="B36">
+        <v>0.8879598662207357</v>
+      </c>
+      <c r="C36">
+        <v>0.9423247559893523</v>
+      </c>
+      <c r="D36">
+        <v>0.04293110934525828</v>
+      </c>
+      <c r="E36">
+        <v>0.165800234127862</v>
+      </c>
+      <c r="F36">
+        <v>0.6810123624211202</v>
+      </c>
+      <c r="G36">
+        <v>16</v>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>IL11,TNC,IL6,DPP4,IL24</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>GOBP_REGULATION_OF_IMMUNE_RESPONSE</t>
+        </is>
+      </c>
+      <c r="B37">
+        <v>0.003127583869118266</v>
+      </c>
+      <c r="C37">
+        <v>0.01626343611941498</v>
+      </c>
+      <c r="D37">
+        <v>0.4317076958033464</v>
+      </c>
+      <c r="E37">
+        <v>0.4924843637672356</v>
+      </c>
+      <c r="F37">
+        <v>2.022843585166126</v>
+      </c>
+      <c r="G37">
+        <v>16</v>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>IGHG1,IGHG3,IGHV4-31,IGHG2,IGHM,IGLL5,IGKC,IL6,FPR2,IGHA1,IGHA2</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>GOBP_REGULATION_OF_IMMUNE_SYSTEM_PROCESS</t>
+        </is>
+      </c>
+      <c r="B38">
+        <v>0.08943089430894309</v>
+      </c>
+      <c r="C38">
+        <v>0.1937669376693767</v>
+      </c>
+      <c r="D38">
+        <v>0.1900233052791083</v>
+      </c>
+      <c r="E38">
+        <v>0.2828154169878115</v>
+      </c>
+      <c r="F38">
+        <v>1.476073060540781</v>
+      </c>
+      <c r="G38">
+        <v>31</v>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>IGHG1,IGHG3,IGHV4-31,IGHG2,IGHM,SELE,IGLL5</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>GOBP_REGULATION_OF_INTRACELLULAR_SIGNAL_TRANSDUCTION</t>
+        </is>
+      </c>
+      <c r="B39">
+        <v>0.8080808080808081</v>
+      </c>
+      <c r="C39">
+        <v>0.9055543852257567</v>
+      </c>
+      <c r="D39">
+        <v>0.06658921041039328</v>
+      </c>
+      <c r="E39">
+        <v>-0.1533035299928764</v>
+      </c>
+      <c r="F39">
+        <v>-0.7316077970376244</v>
+      </c>
+      <c r="G39">
+        <v>18</v>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>PLA2G2A,NTS,S100A7</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>GOBP_REGULATION_OF_LYMPHOCYTE_ACTIVATION</t>
+        </is>
+      </c>
+      <c r="B40">
+        <v>0.001986016822661827</v>
+      </c>
+      <c r="C40">
+        <v>0.01147476386426833</v>
+      </c>
+      <c r="D40">
+        <v>0.4317076958033464</v>
+      </c>
+      <c r="E40">
+        <v>0.5298930199666327</v>
+      </c>
+      <c r="F40">
+        <v>2.146334442009797</v>
+      </c>
+      <c r="G40">
+        <v>15</v>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>IGHG1,IGHG3,IGHV4-31,IGHG2,IGHM,IGLL5,IGKC,IL6,DPP4,IGHA1,IGHA2</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>GOBP_REGULATION_OF_PHOSPHORUS_METABOLIC_PROCESS</t>
+        </is>
+      </c>
+      <c r="B41">
+        <v>0.952020202020202</v>
+      </c>
+      <c r="C41">
+        <v>0.952020202020202</v>
+      </c>
+      <c r="D41">
+        <v>0.05871858795559413</v>
+      </c>
+      <c r="E41">
+        <v>-0.1228705273853082</v>
+      </c>
+      <c r="F41">
+        <v>-0.5863729026030483</v>
+      </c>
+      <c r="G41">
+        <v>18</v>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>ITLN1,SLC4A4,PBK,IGF2,TLR8,PLEK,C5AR1,PROM2,OSM,S100A12,PTGS2,ACSL1,LRRK2,DKK1,FPR2,IL24,IL6</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>GOBP_REGULATION_OF_PROTEIN_MODIFICATION_PROCESS</t>
+        </is>
+      </c>
+      <c r="B42">
+        <v>0.725752508361204</v>
+      </c>
+      <c r="C42">
+        <v>0.9055543852257567</v>
+      </c>
+      <c r="D42">
+        <v>0.05216303054600547</v>
+      </c>
+      <c r="E42">
+        <v>0.1915697385383892</v>
+      </c>
+      <c r="F42">
+        <v>0.7868587212597989</v>
+      </c>
+      <c r="G42">
+        <v>16</v>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>IL11,IL6,IL24,FPR2,DKK1,LRRK2,ACSL1,PTGS2,S100A12,OSM,PROM2,C5AR1</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>GOBP_REGULATION_OF_PROTEIN_PHOSPHORYLATION</t>
+        </is>
+      </c>
+      <c r="B43">
+        <v>0.725752508361204</v>
+      </c>
+      <c r="C43">
+        <v>0.9055543852257567</v>
+      </c>
+      <c r="D43">
+        <v>0.05216303054600547</v>
+      </c>
+      <c r="E43">
+        <v>0.1915697385383892</v>
+      </c>
+      <c r="F43">
+        <v>0.7868587212597989</v>
+      </c>
+      <c r="G43">
+        <v>16</v>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>IL11,IL6,IL24,FPR2,DKK1,LRRK2,ACSL1,PTGS2,S100A12,OSM,PROM2,C5AR1</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>GOBP_REGULATION_OF_RESPONSE_TO_EXTERNAL_STIMULUS</t>
+        </is>
+      </c>
+      <c r="B44">
+        <v>0.9306930693069307</v>
+      </c>
+      <c r="C44">
+        <v>0.9489419530188313</v>
+      </c>
+      <c r="D44">
+        <v>0.04016609800494209</v>
+      </c>
+      <c r="E44">
+        <v>0.1405692320427502</v>
+      </c>
+      <c r="F44">
+        <v>0.6079045020211311</v>
+      </c>
+      <c r="G44">
+        <v>18</v>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>SELE,IL6,DPP4,FPR2,CXCL6,LRRK2,PTGS2,MNDA,S100A12,SERPINB2,OSM,SPP1,C5AR1</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>GOBP_REGULATION_OF_RESPONSE_TO_STRESS</t>
+        </is>
+      </c>
+      <c r="B45">
+        <v>0.7471636952998379</v>
+      </c>
+      <c r="C45">
+        <v>0.9055543852257567</v>
+      </c>
+      <c r="D45">
+        <v>0.04939101059815013</v>
+      </c>
+      <c r="E45">
+        <v>0.1908433982229696</v>
+      </c>
+      <c r="F45">
+        <v>0.7730121801980789</v>
+      </c>
+      <c r="G45">
+        <v>15</v>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>SELE,IL6,FPR2,CXCL6,LRRK2,PTGS2,MNDA,S100A12,SERPINB2,OSM,SPP1</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>GOBP_REGULATION_OF_TRANSPORT</t>
+        </is>
+      </c>
+      <c r="B46">
+        <v>0.7256493506493507</v>
+      </c>
+      <c r="C46">
+        <v>0.9055543852257567</v>
+      </c>
+      <c r="D46">
+        <v>0.05080541390663644</v>
+      </c>
+      <c r="E46">
+        <v>0.172711852140963</v>
+      </c>
+      <c r="F46">
+        <v>0.7852028477651662</v>
+      </c>
+      <c r="G46">
+        <v>20</v>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>SELE,IL11,GAS1,IL6,FPR2,DKK1,LRRK2,ACSL1,PTGS2,HCAR2,APOA2,OSM,PROM2,SPP1</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>GOBP_RESPONSE_TO_BACTERIUM</t>
+        </is>
+      </c>
+      <c r="B47">
+        <v>0.08716323296354993</v>
+      </c>
+      <c r="C47">
+        <v>0.1937669376693767</v>
+      </c>
+      <c r="D47">
+        <v>0.1900233052791083</v>
+      </c>
+      <c r="E47">
+        <v>0.2845416609805516</v>
+      </c>
+      <c r="F47">
+        <v>1.47174174103456</v>
+      </c>
+      <c r="G47">
+        <v>29</v>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>IGHG1,IGHG3,IGHV4-31,IGHG2,IGHM,SELE,IGLL5,IGKC,IL6,IL24,FPR2,CXCL6,IGKV3-20,IGHA1,IGHA2</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>GOBP_RESPONSE_TO_LIPID</t>
+        </is>
+      </c>
+      <c r="B48">
+        <v>0.7536466774716369</v>
+      </c>
+      <c r="C48">
+        <v>0.9055543852257567</v>
+      </c>
+      <c r="D48">
+        <v>0.04899540898624814</v>
+      </c>
+      <c r="E48">
+        <v>0.1897453002365396</v>
+      </c>
+      <c r="F48">
+        <v>0.7685643285748879</v>
+      </c>
+      <c r="G48">
+        <v>15</v>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>SELE,IL6,IL24,DKK1,CXCL6,HOXB13</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>GOBP_RESPONSE_TO_OXYGEN_CONTAINING_COMPOUND</t>
+        </is>
+      </c>
+      <c r="B49">
+        <v>0.8184818481848185</v>
+      </c>
+      <c r="C49">
+        <v>0.9055543852257567</v>
+      </c>
+      <c r="D49">
+        <v>0.04604576830180555</v>
+      </c>
+      <c r="E49">
+        <v>0.152365761821633</v>
+      </c>
+      <c r="F49">
+        <v>0.7251498171323442</v>
+      </c>
+      <c r="G49">
+        <v>23</v>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>SELE,IL6,IL24,FPR2,DKK1,CXCL6,HOXB13,MMP13,LRRK2,TDO2,ACSL1,PTGS2</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>GOBP_SMALL_MOLECULE_METABOLIC_PROCESS</t>
+        </is>
+      </c>
+      <c r="B50">
+        <v>0.05115692597005221</v>
+      </c>
+      <c r="C50">
+        <v>0.1477866750245953</v>
+      </c>
+      <c r="D50">
+        <v>0.3217759180753611</v>
+      </c>
+      <c r="E50">
+        <v>-0.3169014084507042</v>
+      </c>
+      <c r="F50">
+        <v>-1.577646735811149</v>
+      </c>
+      <c r="G50">
+        <v>21</v>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>RBP4,SLC4A4,ADH1B,PSPH,GSTO2,HACD1,IGF2,CA2,TKTL1,SDS,PLEK,HDC,HAL,APOA2,PTGS2,VNN2,ACSL1,TDO2,LRRK2,APOBEC3A,SLC2A3</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>GOBP_TAXIS</t>
+        </is>
+      </c>
+      <c r="B51">
+        <v>0.8003300330033003</v>
+      </c>
+      <c r="C51">
+        <v>0.9055543852257567</v>
+      </c>
+      <c r="D51">
+        <v>0.04706995900826619</v>
+      </c>
+      <c r="E51">
+        <v>0.1682238585664348</v>
+      </c>
+      <c r="F51">
+        <v>0.7274994640278111</v>
+      </c>
+      <c r="G51">
+        <v>18</v>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>CCL18,IL6,DPP4,FPR2,CXCL6,PROK2,EMB,DEFB103A,DEFB103B,S100A12,CXCR1,CXCR2,C5AR1,CMTM2</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>GOBP_TISSUE_DEVELOPMENT</t>
+        </is>
+      </c>
+      <c r="B52">
+        <v>0.3090909090909091</v>
+      </c>
+      <c r="C52">
+        <v>0.6181818181818182</v>
+      </c>
+      <c r="D52">
+        <v>0.1244341686303933</v>
+      </c>
+      <c r="E52">
+        <v>-0.2511562797514396</v>
+      </c>
+      <c r="F52">
+        <v>-1.110313910213476</v>
+      </c>
+      <c r="G52">
+        <v>15</v>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>S100A7,RBP4,ACTC1,ID4,GPC3,IGF2,CA2,FZD3</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
           <t>GOBP_VESICLE_MEDIATED_TRANSPORT</t>
         </is>
       </c>
-      <c r="B28">
-        <v>0.003562225006781071</v>
-      </c>
-      <c r="C28">
-        <v>0.01068667502034321</v>
-      </c>
-      <c r="D28">
-        <v>0.4317076958033464</v>
-      </c>
-      <c r="E28">
-        <v>0.4725763674467222</v>
-      </c>
-      <c r="F28">
-        <v>2.052467135031345</v>
-      </c>
-      <c r="G28">
-        <v>20</v>
-      </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>IGHG1,IGHG3,IGHV4-31,IGHM,IGHG2,SELE,IGLL5,IGKC,GAS1,FPR2,DKK1,IGHA1,IGHA2,LRRK2</t>
+      <c r="B53">
+        <v>0.005700029967240215</v>
+      </c>
+      <c r="C53">
+        <v>0.02470012985804093</v>
+      </c>
+      <c r="D53">
+        <v>0.4070179189239539</v>
+      </c>
+      <c r="E53">
+        <v>0.4051376035990371</v>
+      </c>
+      <c r="F53">
+        <v>1.960306111388755</v>
+      </c>
+      <c r="G53">
+        <v>24</v>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>IGHG1,IGHG3,IGHV4-31,IGHG2,IGHM,SELE,IGLL5,IGKC,GAS1</t>
         </is>
       </c>
     </row>

--- a/results/fgsea_NR_pre_vs_post.xlsx
+++ b/results/fgsea_NR_pre_vs_post.xlsx
@@ -406,19 +406,19 @@
         </is>
       </c>
       <c r="B2">
-        <v>0.06763285024154589</v>
+        <v>0.04707458495688843</v>
       </c>
       <c r="C2">
-        <v>0.1352657004830918</v>
+        <v>0.09414916991377685</v>
       </c>
       <c r="D2">
-        <v>0.271288554688953</v>
+        <v>0.3217759180753611</v>
       </c>
       <c r="E2">
         <v>0.3786020741425863</v>
       </c>
       <c r="F2">
-        <v>1.541706004241686</v>
+        <v>1.583129619850863</v>
       </c>
       <c r="G2">
         <v>16</v>
@@ -436,19 +436,19 @@
         </is>
       </c>
       <c r="B3">
-        <v>0.006317775573146976</v>
+        <v>0.02572522767556935</v>
       </c>
       <c r="C3">
-        <v>0.02527110229258791</v>
+        <v>0.09414916991377685</v>
       </c>
       <c r="D3">
-        <v>0.4070179189239539</v>
+        <v>0.3524878575836192</v>
       </c>
       <c r="E3">
         <v>0.4269055597801208</v>
       </c>
       <c r="F3">
-        <v>1.782095529174357</v>
+        <v>1.814121908376319</v>
       </c>
       <c r="G3">
         <v>17</v>
@@ -466,19 +466,19 @@
         </is>
       </c>
       <c r="B4">
-        <v>0.5446880269814502</v>
+        <v>0.5919055649241147</v>
       </c>
       <c r="C4">
-        <v>0.5446880269814502</v>
+        <v>0.5919055649241147</v>
       </c>
       <c r="D4">
-        <v>0.06613262047584399</v>
+        <v>0.06211241889494712</v>
       </c>
       <c r="E4">
         <v>-0.2337512662675773</v>
       </c>
       <c r="F4">
-        <v>-0.9089436347326878</v>
+        <v>-0.89607417604146</v>
       </c>
       <c r="G4">
         <v>15</v>
@@ -496,19 +496,19 @@
         </is>
       </c>
       <c r="B5">
-        <v>0.1246943765281174</v>
+        <v>0.1344743276283619</v>
       </c>
       <c r="C5">
-        <v>0.1662591687041565</v>
+        <v>0.1792991035044825</v>
       </c>
       <c r="D5">
-        <v>0.1978220213151033</v>
+        <v>0.1900233052791083</v>
       </c>
       <c r="E5">
         <v>0.3361091217669046</v>
       </c>
       <c r="F5">
-        <v>1.340877654851403</v>
+        <v>1.360764761417507</v>
       </c>
       <c r="G5">
         <v>15</v>
